--- a/Obskaya_Guba_Invasive_species_2025/R_calc_invasive_species_2025/Data/export_gisd_PNIS.xlsx
+++ b/Obskaya_Guba_Invasive_species_2025/R_calc_invasive_species_2025/Data/export_gisd_PNIS.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="export_gisd_PNIS" sheetId="1" r:id="rId1"/>
     <sheet name="Read_me" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">export_gisd_PNIS!$A$1:$D$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="50">
   <si>
     <t>Species</t>
   </si>
@@ -36,12 +39,24 @@
     <t>habitat</t>
   </si>
   <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t>Alitta succinea</t>
   </si>
   <si>
     <t>Marine</t>
   </si>
   <si>
+    <t>My_query</t>
+  </si>
+  <si>
+    <t>Benthos</t>
+  </si>
+  <si>
     <t>Ascidiella aspersa</t>
   </si>
   <si>
@@ -54,6 +69,9 @@
     <t>Freshwater</t>
   </si>
   <si>
+    <t>Plancton</t>
+  </si>
+  <si>
     <t>Carijoa riisei</t>
   </si>
   <si>
@@ -139,6 +157,27 @@
   </si>
   <si>
     <t>Tubastraea coccinea</t>
+  </si>
+  <si>
+    <t>Asterias amurensis</t>
+  </si>
+  <si>
+    <t>CMI_report</t>
+  </si>
+  <si>
+    <t>Corbicula fluminea</t>
+  </si>
+  <si>
+    <t>Didemnum</t>
+  </si>
+  <si>
+    <t>Geukensia demissa</t>
+  </si>
+  <si>
+    <t>Potamocorbula amurensis</t>
+  </si>
+  <si>
+    <t>Sabella spallanzanii</t>
   </si>
   <si>
     <t>Здесь присутствуют только те виды, которые не попали в предыдущую версию базы данных по PNIS по бентосу и планктону</t>
@@ -154,13 +193,20 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -307,12 +353,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -627,76 +685,70 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,10 +757,10 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,10 +769,10 @@
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,10 +781,10 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,10 +793,10 @@
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,13 +805,28 @@
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1294,291 +1361,596 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="10.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D41" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1589,7 +1961,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1597,7 +1969,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
